--- a/Assets/Resources/Data/Scripts/ExcelTest.xlsx
+++ b/Assets/Resources/Data/Scripts/ExcelTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\Dission3\Assets\Resources\Data\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3B6846-1839-44EE-A629-A92ACD75FF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CF3AE3-A35F-470C-8C94-21A52ABC98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
   </bookViews>
   <sheets>
     <sheet name="script" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>엑셀 테스트 중입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 추가해보겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 실행 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EE85DC4-05DE-4465-AF70-49D1C9B8D94B}" name="표1" displayName="표1" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{3EE85DC4-05DE-4465-AF70-49D1C9B8D94B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EE85DC4-05DE-4465-AF70-49D1C9B8D94B}" name="표1" displayName="표1" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{3EE85DC4-05DE-4465-AF70-49D1C9B8D94B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B8ED79A4-D26E-4E53-905A-38030686268E}" name="name"/>
     <tableColumn id="2" xr3:uid="{2557A1ED-B8A8-444E-966F-27B32779DF6D}" name="line"/>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AA786E-7CF4-4106-8E4B-2C9746454947}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -541,6 +553,22 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/Scripts/ExcelTest.xlsx
+++ b/Assets/Resources/Data/Scripts/ExcelTest.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\Dission3\Assets\Resources\Data\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CF3AE3-A35F-470C-8C94-21A52ABC98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40174B22-0AED-498E-86D4-1AFF20D34303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
   </bookViews>
   <sheets>
     <sheet name="script" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="MoveTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>엑셀 테스트 중입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +85,38 @@
   </si>
   <si>
     <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 시트입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 것은 어떻게 할 것이냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 변환해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 후 말합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AA786E-7CF4-4106-8E4B-2C9746454947}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -576,4 +610,90 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A219CF-E00E-4118-8019-4709B6A9285B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCCE17F-B19A-4F55-A86B-95AC5D23A378}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/Data/Scripts/ExcelTest.xlsx
+++ b/Assets/Resources/Data/Scripts/ExcelTest.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\Dission3\Assets\Resources\Data\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40174B22-0AED-498E-86D4-1AFF20D34303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27389966-989A-4E2F-91A4-2C48EA6DFCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{8EEB011D-8CF8-4809-8281-81F2A66517C6}"/>
   </bookViews>
   <sheets>
     <sheet name="script" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="MoveTest" sheetId="3" r:id="rId3"/>
+    <sheet name="CommandList" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>엑셀 테스트 중입니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +118,10 @@
   </si>
   <si>
     <t>이동 후 말합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCCE17F-B19A-4F55-A86B-95AC5D23A378}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -696,4 +701,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C109EC69-2F8B-4D90-8B80-4A2E5D316B61}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>